--- a/outputs-r202/o__RFN20.xlsx
+++ b/outputs-r202/o__RFN20.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -645,6 +670,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -678,6 +708,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -711,6 +746,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -744,6 +784,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -777,6 +822,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -810,6 +860,11 @@
           <t>f__CAG-826</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>f__CAG-826</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -839,6 +894,11 @@
         <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>f__CAG-288</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>f__CAG-288</t>
         </is>

--- a/outputs-r202/o__RFN20.xlsx
+++ b/outputs-r202/o__RFN20.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,7 +603,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG187.fasta</t>
+          <t>RUG610.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -641,7 +641,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG266.fasta</t>
+          <t>RUG696.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -679,7 +679,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG275.fasta</t>
+          <t>RUG698.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -711,196 +711,6 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>f__CAG-826</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG551.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>f__CAG-826</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>f__CAG-826</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG610.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>f__CAG-826</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>f__CAG-826</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG696.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>f__CAG-826</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>f__CAG-826</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG698.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>f__CAG-826</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>f__CAG-826</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG810.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>f__CAG-288</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>f__CAG-288</t>
         </is>
       </c>
     </row>
